--- a/example_data/EMA/label_corrected/elaprase-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/elaprase-epar-product-information_en.xlsx
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>renal || hepatic</t>
+          <t>hepatic || renal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
